--- a/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 8,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,69; 6,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 2,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 13,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 10,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,04; 5,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 8,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 6,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 3,06</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>195,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>169,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,92%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,48; 1342,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,56; 924,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,79; 544,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,83; 796,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,06; 628,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,47; 252,11</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 2,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 0,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 4,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 6,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 7,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,39; 6,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 3,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 3,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,71; 4,93</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,14%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,29; 108,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,66; 45,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 191,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,31; 293,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,7; 333,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,52; 318,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,68; 132,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,22; 139,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,22; 197,91</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 1,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 2,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 2,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 4,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 3,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 6,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 2,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 2,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 4,11</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,78%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,3; 93,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,57; 108,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,56; 119,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 98,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,75; 75,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,5; 151,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 82,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,49; 61,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,86; 117,64</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 3,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 3,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 5,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 1,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 3,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 2,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 1,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 2,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 3,52</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>167,13%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,99%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,32%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,33; 276,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,89; 289,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,5; 431,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,41; 29,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,99; 53,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,96; 48,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,69; 50,31</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,15; 78,74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 95,56</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 2,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 3,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 4,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 3,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 5,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 5,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 2,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 3,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,59; 4,68</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,03%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,33%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,16%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,65; 125,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 166,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,32; 193,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,36; 82,25</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,26; 122,2</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,07; 133,46</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 77,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,55; 107,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,8; 133,19</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 1,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 1,76</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 2,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 2,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 3,53</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,91; 4,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 2,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 2,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 3,4</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,95%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,24%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,3%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,88%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,53%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 72,44</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,01; 81,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,01; 124,62</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,32; 60,61</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,47; 72,34</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,02; 94,38</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,89; 56,63</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,4; 63,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,0; 94,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,77</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 8,68</t>
+          <t>-1,32; 2,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 6,09</t>
+          <t>-2,23; 1,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,3</t>
+          <t>-0,59; 3,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 13,61</t>
+          <t>1,34; 6,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 10,36</t>
+          <t>1,91; 6,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 5,09</t>
+          <t>1,96; 5,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 8,98</t>
+          <t>0,71; 3,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 6,25</t>
+          <t>0,52; 3,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 3,06</t>
+          <t>1,44; 4,21</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>126,33%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>65,64%</t>
+          <t>-15,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,42%</t>
+          <t>52,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>195,6%</t>
+          <t>116,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>136,2%</t>
+          <t>135,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>119,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>169,48%</t>
+          <t>71,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>109,59%</t>
+          <t>64,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>89,57%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-37,85; 119,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,08; 64,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,1; 162,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 1342,68</t>
+          <t>29,26; 251,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,56; 924,73</t>
+          <t>40,59; 294,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-59,79; 544,76</t>
+          <t>44,12; 260,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 796,4</t>
+          <t>19,75; 155,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,06; 628,46</t>
+          <t>10,69; 150,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-59,47; 252,11</t>
+          <t>38,12; 176,84</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>1,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 2,38</t>
+          <t>-1,05; 1,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,89</t>
+          <t>-0,94; 2,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,22</t>
+          <t>-1,9; 1,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,25</t>
+          <t>0,06; 4,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,27</t>
+          <t>-1,21; 3,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,74</t>
+          <t>2,64; 6,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,56</t>
+          <t>-0,07; 2,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,63</t>
+          <t>-0,66; 2,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,93</t>
+          <t>-0,34; 3,45</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,8%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>102,05%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>135,33%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>136,51%</t>
+          <t>81,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,41%</t>
+          <t>34,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>57,47%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>104,14%</t>
+          <t>47,46%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,29; 108,36</t>
+          <t>-34,3; 93,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,66; 45,33</t>
+          <t>-32,57; 108,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 191,38</t>
+          <t>-55,48; 81,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 293,66</t>
+          <t>0,86; 98,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,7; 333,31</t>
+          <t>-17,75; 75,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,52; 318,03</t>
+          <t>38,02; 150,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 132,0</t>
+          <t>-1,64; 82,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 139,14</t>
+          <t>-14,49; 61,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>42,22; 197,91</t>
+          <t>-6,48; 95,3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,89</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,54</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>1,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,87</t>
+          <t>-0,47; 3,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,06</t>
+          <t>0,17; 3,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,21</t>
+          <t>1,31; 5,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,48</t>
+          <t>-3,73; 1,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,29</t>
+          <t>-2,33; 3,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,81</t>
+          <t>-5,16; 1,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,87</t>
+          <t>-1,38; 1,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,14</t>
+          <t>-0,28; 2,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,11</t>
+          <t>-0,91; 2,89</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>68,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>101,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>156,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,61%</t>
+          <t>-12,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,62%</t>
+          <t>-14,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>34,3%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>66,78%</t>
+          <t>24,56%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 93,01</t>
+          <t>-25,33; 276,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 108,34</t>
+          <t>2,89; 289,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 119,42</t>
+          <t>35,73; 416,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 98,41</t>
+          <t>-43,41; 29,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 75,47</t>
+          <t>-28,99; 53,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,5; 151,95</t>
+          <t>-59,37; 28,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 82,16</t>
+          <t>-27,69; 50,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 61,85</t>
+          <t>-6,15; 78,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,86; 117,64</t>
+          <t>-17,47; 77,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>2,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,54</t>
+          <t>-0,98; 2,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,76</t>
+          <t>-0,1; 3,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,44</t>
+          <t>0,69; 3,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,68</t>
+          <t>-0,46; 3,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,12</t>
+          <t>0,97; 5,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,72</t>
+          <t>0,47; 4,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,88</t>
+          <t>0,02; 2,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,91</t>
+          <t>0,97; 3,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,52</t>
+          <t>1,18; 4,17</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>68,32%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>101,65%</t>
+          <t>51,03%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>167,13%</t>
+          <t>76,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,99%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>51,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>59,33%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>61,11%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 276,62</t>
+          <t>-27,65; 125,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,89; 289,24</t>
+          <t>-5,85; 166,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>41,5; 431,79</t>
+          <t>15,91; 188,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 29,82</t>
+          <t>-8,36; 82,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 53,93</t>
+          <t>13,26; 122,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,96; 48,38</t>
+          <t>7,15; 108,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 50,31</t>
+          <t>0,42; 77,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 78,74</t>
+          <t>19,55; 107,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,29; 95,56</t>
+          <t>23,83; 113,61</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>2,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,63</t>
+          <t>-0,14; 1,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,34</t>
+          <t>0,12; 1,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,03</t>
+          <t>0,33; 2,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,6</t>
+          <t>0,54; 2,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,4</t>
+          <t>1,09; 3,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,78</t>
+          <t>1,05; 3,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,73</t>
+          <t>0,59; 2,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,87</t>
+          <t>0,91; 2,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,68</t>
+          <t>1,13; 2,93</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>51,03%</t>
+          <t>34,86%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>78,9%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>62,95%</t>
+          <t>43,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>64,97%</t>
+          <t>49,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>59,33%</t>
+          <t>40,88%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>71,16%</t>
+          <t>52,85%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 125,99</t>
+          <t>-5,31; 72,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 166,99</t>
+          <t>3,01; 81,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,32; 193,7</t>
+          <t>11,21; 108,92</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 82,25</t>
+          <t>8,32; 60,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,26; 122,2</t>
+          <t>17,47; 72,34</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,07; 133,46</t>
+          <t>19,41; 82,63</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>0,42; 77,34</t>
+          <t>12,89; 56,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>19,55; 107,56</t>
+          <t>20,4; 63,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>31,8; 133,19</t>
+          <t>26,53; 80,78</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 1,63</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 1,76</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,93; 2,75</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 2,94</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 3,53</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 4,45</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 2,11</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 2,34</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 3,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>29,98%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>34,86%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>72,95%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>33,69%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>43,24%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>60,3%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>32,63%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>40,88%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>66,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-5,31; 72,44</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 81,56</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>31,01; 124,62</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>8,32; 60,61</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>17,47; 72,34</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>33,02; 94,38</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>12,89; 56,63</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>20,4; 63,43</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>43,0; 94,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A05-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 2,55</t>
+          <t>-1,28; 2,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,31</t>
+          <t>-2,19; 1,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,39</t>
+          <t>-0,6; 3,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,01</t>
+          <t>1,52; 6,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,92</t>
+          <t>1,96; 6,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,81</t>
+          <t>1,93; 5,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,65</t>
+          <t>0,69; 3,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,58</t>
+          <t>0,55; 3,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,21</t>
+          <t>1,32; 4,13</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 119,91</t>
+          <t>-35,21; 130,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,08; 64,18</t>
+          <t>-58,55; 62,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 162,46</t>
+          <t>-17,32; 164,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,26; 251,79</t>
+          <t>33,08; 268,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>40,59; 294,53</t>
+          <t>44,21; 288,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,12; 260,09</t>
+          <t>41,66; 258,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,75; 155,53</t>
+          <t>18,38; 160,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,69; 150,18</t>
+          <t>14,31; 145,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,12; 176,84</t>
+          <t>34,77; 176,41</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,87</t>
+          <t>-1,03; 1,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,06</t>
+          <t>-0,84; 1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,61</t>
+          <t>-1,59; 1,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,48</t>
+          <t>0,26; 4,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 3,29</t>
+          <t>-1,12; 3,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,8</t>
+          <t>2,54; 6,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,87</t>
+          <t>0,05; 2,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,14</t>
+          <t>-0,66; 2,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 3,45</t>
+          <t>-0,42; 3,39</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 93,01</t>
+          <t>-33,63; 102,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 108,34</t>
+          <t>-26,68; 106,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 81,96</t>
+          <t>-48,78; 93,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 98,41</t>
+          <t>1,44; 108,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 75,47</t>
+          <t>-15,89; 76,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,02; 150,64</t>
+          <t>34,08; 148,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 82,16</t>
+          <t>0,69; 83,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 61,85</t>
+          <t>-13,2; 61,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 95,3</t>
+          <t>-7,53; 92,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,54</t>
+          <t>-0,58; 3,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,76</t>
+          <t>0,35; 3,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,17</t>
+          <t>1,06; 4,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,68</t>
+          <t>-3,38; 1,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 3,12</t>
+          <t>-2,07; 3,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 1,73</t>
+          <t>-4,2; 1,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,88</t>
+          <t>-1,35; 1,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,91</t>
+          <t>-0,21; 3,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,89</t>
+          <t>-1,11; 2,86</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 276,62</t>
+          <t>-26,63; 249,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 289,24</t>
+          <t>8,93; 288,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,73; 416,06</t>
+          <t>34,12; 372,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-43,41; 29,82</t>
+          <t>-40,37; 32,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 53,93</t>
+          <t>-25,71; 56,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 28,15</t>
+          <t>-56,61; 29,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 50,31</t>
+          <t>-26,69; 54,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 78,74</t>
+          <t>-4,4; 85,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 77,01</t>
+          <t>-19,05; 78,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,63</t>
+          <t>-0,67; 2,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,34</t>
+          <t>-0,23; 3,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 3,97</t>
+          <t>0,42; 3,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,6</t>
+          <t>-0,38; 3,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,4</t>
+          <t>1,06; 5,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,98</t>
+          <t>-0,01; 5,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,73</t>
+          <t>-0,08; 2,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,87</t>
+          <t>0,94; 4,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,17</t>
+          <t>1,01; 3,92</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 125,99</t>
+          <t>-20,62; 128,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 166,99</t>
+          <t>-7,5; 136,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,91; 188,05</t>
+          <t>9,14; 185,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 82,25</t>
+          <t>-7,14; 90,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,26; 122,2</t>
+          <t>14,57; 133,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,15; 108,46</t>
+          <t>-0,21; 117,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 77,34</t>
+          <t>-2,05; 79,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,55; 107,56</t>
+          <t>16,26; 117,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,83; 113,61</t>
+          <t>21,39; 111,54</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,63</t>
+          <t>-0,06; 1,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,76</t>
+          <t>0,14; 1,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,44</t>
+          <t>0,42; 2,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,94</t>
+          <t>0,63; 2,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,53</t>
+          <t>1,17; 3,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,92</t>
+          <t>1,0; 3,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,11</t>
+          <t>0,58; 2,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,34</t>
+          <t>0,9; 2,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,93</t>
+          <t>1,17; 2,94</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 72,44</t>
+          <t>-2,32; 77,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3,01; 81,56</t>
+          <t>4,03; 81,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,21; 108,92</t>
+          <t>13,21; 112,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,32; 60,61</t>
+          <t>10,35; 58,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,47; 72,34</t>
+          <t>19,88; 74,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>19,41; 82,63</t>
+          <t>19,05; 79,45</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,89; 56,63</t>
+          <t>13,69; 56,02</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>20,4; 63,43</t>
+          <t>21,77; 65,12</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>26,53; 80,78</t>
+          <t>28,13; 81,43</t>
         </is>
       </c>
     </row>
